--- a/all_data_file.xlsx
+++ b/all_data_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U149"/>
+  <dimension ref="A1:X149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,21 @@
           <t>14</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>(5а)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>(2б)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -605,6 +620,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -671,6 +701,21 @@
           <t>10013160/160325/5111435</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -737,6 +782,21 @@
           <t>10702070/191023/3427458</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -803,6 +863,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -869,6 +944,21 @@
           <t>10009100/070525/5062490/37</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -895,6 +985,21 @@
       <c r="N7" t="n">
         <v>4039.27</v>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -961,6 +1066,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1027,6 +1147,21 @@
           <t>10013160/160325/5111435</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1093,6 +1228,21 @@
           <t>10702070/191023/3427458</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1159,6 +1309,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1225,6 +1390,21 @@
           <t>10009100/070525/5062490/37</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
@@ -1251,6 +1431,21 @@
       <c r="N13" t="n">
         <v>4039.27</v>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1317,6 +1512,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1383,6 +1593,21 @@
           <t>10013160/160325/5111435</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1449,6 +1674,21 @@
           <t>10702070/191023/3427458</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1515,6 +1755,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1581,6 +1836,21 @@
           <t>10009100/070525/5062490/37</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -1607,6 +1877,21 @@
       <c r="N19" t="n">
         <v>4039.27</v>
       </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1673,6 +1958,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1739,6 +2039,21 @@
           <t>10013160/160325/5111435</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1805,6 +2120,21 @@
           <t>10702070/191023/3427458</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1871,6 +2201,21 @@
           <t>11214325/240125/0000994/4</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1937,6 +2282,21 @@
           <t>10009100/070525/5062490/37</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -1963,6 +2323,21 @@
       <c r="N25" t="n">
         <v>4039.27</v>
       </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0035960 от 17.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2029,6 +2404,21 @@
           <t>11206542/110618/0019998</t>
         </is>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2095,6 +2485,21 @@
           <t>10702070/241124/5140653</t>
         </is>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
@@ -2121,6 +2526,21 @@
       <c r="N28" t="n">
         <v>10370.52</v>
       </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2187,6 +2607,21 @@
           <t>11206542/110618/0019998</t>
         </is>
       </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2253,6 +2688,21 @@
           <t>10702070/241124/5140653</t>
         </is>
       </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -2279,6 +2729,21 @@
       <c r="N31" t="n">
         <v>10370.52</v>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2345,6 +2810,21 @@
           <t>11206542/110618/0019998</t>
         </is>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2411,6 +2891,21 @@
           <t>10702070/241124/5140653</t>
         </is>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
@@ -2437,6 +2932,21 @@
       <c r="N34" t="n">
         <v>10370.52</v>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2503,6 +3013,21 @@
           <t>11206542/110618/0019998</t>
         </is>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2569,6 +3094,21 @@
           <t>10702070/241124/5140653</t>
         </is>
       </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
@@ -2595,6 +3135,21 @@
       <c r="N37" t="n">
         <v>10370.52</v>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0036375 от 18.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2663,6 +3218,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2731,6 +3301,21 @@
           <t>10702070/191023/3427458</t>
         </is>
       </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2799,6 +3384,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2867,6 +3467,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2935,6 +3550,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3003,6 +3633,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3071,6 +3716,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3139,6 +3799,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3207,6 +3882,21 @@
           <t>10702070/041224/5157779</t>
         </is>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3275,6 +3965,21 @@
           <t>10129060/100617/0015450</t>
         </is>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3338,6 +4043,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3406,6 +4126,21 @@
           <t>10702070/191023/3427458</t>
         </is>
       </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3469,6 +4204,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3537,6 +4287,21 @@
           <t>10702070/011023/3402825</t>
         </is>
       </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3600,6 +4365,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3668,6 +4448,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3731,6 +4526,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3799,6 +4609,21 @@
           <t>11209119/030625/0010448/15</t>
         </is>
       </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3867,6 +4692,21 @@
           <t>11209119/030625/0010448/15</t>
         </is>
       </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3935,6 +4775,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4003,6 +4858,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4071,6 +4941,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4139,6 +5024,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4207,6 +5107,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4275,6 +5190,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4343,6 +5273,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4411,6 +5356,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4479,6 +5439,21 @@
           <t>10228010/250824/5231891</t>
         </is>
       </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4547,6 +5522,21 @@
           <t>10013160/261024/5158073</t>
         </is>
       </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4615,6 +5605,21 @@
           <t>10013160/261024/5158073</t>
         </is>
       </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
@@ -4641,6 +5646,21 @@
       <c r="N68" t="n">
         <v>41183.14</v>
       </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0038288 от 25.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4704,6 +5724,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4767,6 +5802,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4830,6 +5880,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4893,6 +5958,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4956,6 +6036,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5019,6 +6114,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5082,6 +6192,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5145,6 +6270,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5213,6 +6353,21 @@
           <t>10317120/220525/5089486</t>
         </is>
       </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5276,6 +6431,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5339,6 +6509,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5402,6 +6587,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5465,6 +6665,21 @@
           <t>----</t>
         </is>
       </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
@@ -5491,6 +6706,21 @@
       <c r="N82" t="n">
         <v>42043.02</v>
       </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № АД-0039408 от 30.06.25 г.</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>ООО "АДЕО.ПРО"</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>7706442758/772501001</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5562,6 +6792,16 @@
           <t xml:space="preserve">10013160/030425/5140127 </t>
         </is>
       </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>тот же</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>ООО "ЭКСЕЛЕНТ ПАРТС"</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5574,6 +6814,16 @@
           <t>Универсальный передаточный документ № Э250619036  от 19 июня 2025 г.</t>
         </is>
       </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>тот же</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>ООО "ЭКСЕЛЕНТ ПАРТС"</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5645,6 +6895,16 @@
           <t xml:space="preserve">10013160/030425/5140127 </t>
         </is>
       </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>тот же</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>ООО "ЭКСЕЛЕНТ ПАРТС"</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
@@ -5671,6 +6931,16 @@
       <c r="N86" t="n">
         <v>2202</v>
       </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>тот же</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>ООО "ЭКСЕЛЕНТ ПАРТС"</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5747,6 +7017,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5821,6 +7106,21 @@
           <t xml:space="preserve">10131010/110122/3010195 </t>
         </is>
       </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5895,6 +7195,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5969,6 +7284,21 @@
           <t xml:space="preserve">10009199/031119/0007975 </t>
         </is>
       </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6043,6 +7373,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6117,6 +7462,21 @@
           <t xml:space="preserve">10702070/260525/5175743 </t>
         </is>
       </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6191,6 +7551,21 @@
           <t xml:space="preserve">10317100/170215/0002170 </t>
         </is>
       </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6265,6 +7640,21 @@
           <t xml:space="preserve">10012020/170124/5000705 </t>
         </is>
       </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6339,6 +7729,21 @@
           <t xml:space="preserve">10012020/181023/3063054 </t>
         </is>
       </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6413,6 +7818,21 @@
           <t xml:space="preserve">10012020/170124/5000705 </t>
         </is>
       </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6487,6 +7907,21 @@
           <t xml:space="preserve">10012020/051124/5028135 </t>
         </is>
       </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6561,6 +7996,21 @@
           <t xml:space="preserve">10012020/021123/3066546 </t>
         </is>
       </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6635,6 +8085,21 @@
           <t xml:space="preserve">10012020/181023/3063054 </t>
         </is>
       </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6709,6 +8174,21 @@
           <t xml:space="preserve">10702070/270721/0229410 </t>
         </is>
       </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6783,6 +8263,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6857,6 +8352,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6931,6 +8441,21 @@
           <t xml:space="preserve">10702070/281023/3437937 </t>
         </is>
       </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6943,6 +8468,21 @@
           <t>Универсальный передаточный документ № 24 от 25 июля 2025 г.</t>
         </is>
       </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7017,6 +8557,21 @@
           <t xml:space="preserve">10317120/201123/3187931 </t>
         </is>
       </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7091,6 +8646,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7165,6 +8735,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7239,6 +8824,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7313,6 +8913,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7387,6 +9002,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7461,6 +9091,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7535,6 +9180,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7609,6 +9269,21 @@
           <t xml:space="preserve">11206651/300625/0005705 </t>
         </is>
       </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7683,6 +9358,21 @@
           <t xml:space="preserve">10702070/120225/5058723 </t>
         </is>
       </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7695,6 +9385,21 @@
           <t>Универсальный передаточный документ № 24 от 25 июля 2025 г.</t>
         </is>
       </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7769,6 +9474,21 @@
           <t>--</t>
         </is>
       </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
@@ -7795,6 +9515,21 @@
       <c r="N117" t="n">
         <v>141612.34</v>
       </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ, № 24 от 25.07.2025 г.</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>ООО "АЛЬЯНТИС"</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>6700033500/670001001</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7868,6 +9603,21 @@
           <t>10702070/101224/5164746</t>
         </is>
       </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7941,6 +9691,21 @@
           <t>10702070/291224/5198708</t>
         </is>
       </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8014,6 +9779,21 @@
           <t>10702070/040525/5146923</t>
         </is>
       </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8087,6 +9867,21 @@
           <t>10702070/191224/5180233</t>
         </is>
       </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8160,6 +9955,21 @@
           <t>10702070/181224/5178502</t>
         </is>
       </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8233,6 +10043,21 @@
           <t>10702070/040525/5146915</t>
         </is>
       </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8306,6 +10131,21 @@
           <t>10702070/150124/3018321</t>
         </is>
       </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8379,6 +10219,21 @@
           <t>10702070/140125/5015031</t>
         </is>
       </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8452,6 +10307,21 @@
           <t>10702070/291024/5100287</t>
         </is>
       </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
@@ -8478,6 +10348,21 @@
       <c r="N127" t="n">
         <v>42046</v>
       </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>Универсальный Передаточный Документ  № РТМ01469218 от 10 Июня 2025 г.</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>ООО "АТМ"</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>7731327942/773101001</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8556,6 +10441,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025609 от 16.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8634,6 +10534,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025609 от 16.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
@@ -8660,6 +10575,21 @@
       <c r="N130" t="n">
         <v>1300</v>
       </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025609 от 16.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8677,6 +10607,21 @@
           <t>Лист 2</t>
         </is>
       </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025609 от 16.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8755,6 +10700,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025729 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
@@ -8781,6 +10741,21 @@
       <c r="N133" t="n">
         <v>6478</v>
       </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025729 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8859,6 +10834,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025811 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
@@ -8885,6 +10875,21 @@
       <c r="N135" t="n">
         <v>485.1</v>
       </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025811 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8961,6 +10966,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025912 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
@@ -8987,6 +11007,21 @@
       <c r="N137" t="n">
         <v>3234</v>
       </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025912 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9065,6 +11100,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025978 от 18.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
@@ -9091,6 +11141,21 @@
       <c r="N139" t="n">
         <v>1782</v>
       </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025978 от 18.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9171,6 +11236,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT024030 от 05.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9251,6 +11331,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT024030 от 05.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="B142" t="inlineStr">
@@ -9277,6 +11372,21 @@
       <c r="N142" t="n">
         <v>2422.6</v>
       </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT024030 от 05.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9355,6 +11465,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT024233 от 06.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
@@ -9381,6 +11506,21 @@
       <c r="N144" t="n">
         <v>1188</v>
       </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT024233 от 06.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9459,6 +11599,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025609 от 16.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9537,6 +11692,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025609 от 16.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="B147" t="inlineStr">
@@ -9563,6 +11733,21 @@
       <c r="N147" t="n">
         <v>1300</v>
       </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025609 от 16.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9639,6 +11824,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025912 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -9664,6 +11864,21 @@
       </c>
       <c r="N149" t="n">
         <v>3234</v>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>Универсальный передаточный документ № МСTT025912 от 17.06.2025 г.</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Максимум" (ООО "Максимум")</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>5001106351/500101001</t>
+        </is>
       </c>
     </row>
   </sheetData>
